--- a/fpt/fpt-rhqz/test_case/test_case.xlsx
+++ b/fpt/fpt-rhqz/test_case/test_case.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t>api_id</t>
   </si>
@@ -27,7 +27,10 @@
     <t>api_url</t>
   </si>
   <si>
-    <t>api_header</t>
+    <t>method</t>
+  </si>
+  <si>
+    <t>header</t>
   </si>
   <si>
     <t>cookie</t>
@@ -45,7 +48,7 @@
     <t>interfaceCode</t>
   </si>
   <si>
-    <t>global_path</t>
+    <t>global_file</t>
   </si>
   <si>
     <t>api_describe</t>
@@ -60,6 +63,9 @@
     <t>/fpt-rhqz/prepose</t>
   </si>
   <si>
+    <t>POST</t>
+  </si>
+  <si>
     <t>{"Content-Type": "application/json"}</t>
   </si>
   <si>
@@ -90,25 +96,25 @@
     <t>test_discribe</t>
   </si>
   <si>
-    <t>method</t>
-  </si>
-  <si>
-    <t>data_IsFlie</t>
-  </si>
-  <si>
-    <t>api_data</t>
-  </si>
-  <si>
-    <t>Expected_results</t>
-  </si>
-  <si>
-    <t>Be_dependent_fields</t>
-  </si>
-  <si>
-    <t>d_case_id</t>
-  </si>
-  <si>
-    <t>dependent_fields</t>
+    <t>params_flie</t>
+  </si>
+  <si>
+    <t>data_file</t>
+  </si>
+  <si>
+    <t>expected_isfile</t>
+  </si>
+  <si>
+    <t>expected_data</t>
+  </si>
+  <si>
+    <t>is_bei_dp</t>
+  </si>
+  <si>
+    <t>dp_case_id</t>
+  </si>
+  <si>
+    <t>output</t>
   </si>
   <si>
     <t>is_run</t>
@@ -120,25 +126,17 @@
     <t>蓝票_一行明细</t>
   </si>
   <si>
-    <t>POST</t>
+    <t>kj_b_01_开具_蓝_单条明细.json</t>
+  </si>
+  <si>
+    <t>"returnCode":"0000","returnMessage":"成功";
+"returnCode":"0000","returnMessage":"成功"</t>
   </si>
   <si>
     <t>yes</t>
   </si>
   <si>
-    <t>kj_b_01_开具_蓝_单条明细.json</t>
-  </si>
-  <si>
-    <t>"returnCode":"0000","returnMessage":"成功"</t>
-  </si>
-  <si>
-    <t>{
- "request": "",
- "response": [
-  "interface.data.content.DATA.FP_DM",
-  "interface.data.content.DATA.FP_HM"
- ]
-}</t>
+    <t>kj.txt</t>
   </si>
   <si>
     <t>kj_r_02</t>
@@ -148,12 +146,6 @@
   </si>
   <si>
     <t>kj_r_02_开具_红_单条明细.json</t>
-  </si>
-  <si>
-    <t>{
- "REQUEST_COMMON_FPKJ.YFP_DM": "interface.data.content.DATA.FP_DM",
- "REQUEST_COMMON_FPKJ.YFP_HM": "interface.data.content.DATA.FP_HM"
-}</t>
   </si>
   <si>
     <t>函数</t>
@@ -808,7 +800,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -817,6 +809,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1166,10 +1161,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1177,16 +1172,17 @@
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="9.625" customWidth="1"/>
     <col min="3" max="3" width="21.25" customWidth="1"/>
-    <col min="4" max="4" width="37.25" customWidth="1"/>
-    <col min="5" max="6" width="12.75" customWidth="1"/>
-    <col min="7" max="7" width="14.75" customWidth="1"/>
-    <col min="8" max="10" width="19.125" customWidth="1"/>
-    <col min="11" max="11" width="21.875" customWidth="1"/>
-    <col min="12" max="12" width="17.75" customWidth="1"/>
-    <col min="13" max="13" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="37.25" customWidth="1"/>
+    <col min="6" max="7" width="12.75" customWidth="1"/>
+    <col min="8" max="8" width="14.75" customWidth="1"/>
+    <col min="9" max="11" width="19.125" customWidth="1"/>
+    <col min="12" max="12" width="21.875" customWidth="1"/>
+    <col min="13" max="13" width="17.75" customWidth="1"/>
+    <col min="14" max="14" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1220,45 +1216,54 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
         <v>14</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="29" spans="13:13">
-      <c r="M29" t="s">
-        <v>21</v>
+    <row r="3" spans="4:4">
+      <c r="D3" s="3"/>
+    </row>
+    <row r="29" spans="14:14">
+      <c r="N29" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1270,10 +1275,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1281,119 +1286,121 @@
     <col min="1" max="1" width="8.25" customWidth="1"/>
     <col min="2" max="2" width="6.75" customWidth="1"/>
     <col min="3" max="3" width="13.875" customWidth="1"/>
-    <col min="4" max="4" width="7.625" customWidth="1"/>
-    <col min="5" max="5" width="11.75" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="29.125" customWidth="1"/>
-    <col min="8" max="8" width="42.625" customWidth="1"/>
-    <col min="9" max="9" width="40.125" customWidth="1"/>
-    <col min="10" max="10" width="9.625" customWidth="1"/>
-    <col min="11" max="11" width="70.25" customWidth="1"/>
-    <col min="12" max="12" width="12.25" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="9.375" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="7" max="7" width="30.625" customWidth="1"/>
+    <col min="8" max="8" width="15.875" customWidth="1"/>
+    <col min="9" max="9" width="46.5" customWidth="1"/>
+    <col min="10" max="10" width="9.375" customWidth="1"/>
+    <col min="11" max="11" width="10.625" customWidth="1"/>
+    <col min="12" max="12" width="26.125" customWidth="1"/>
+    <col min="13" max="13" width="7.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33" customHeight="1" spans="1:12">
+    <row r="1" ht="33" customHeight="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="2" ht="94.5" spans="1:12">
+    <row r="2" ht="39" customHeight="1" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>34</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
         <v>36</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="3" ht="54" spans="1:12">
+    <row r="3" ht="33" customHeight="1" spans="1:13">
       <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>35</v>
+      <c r="M3" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1406,13 +1413,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="17.75" customWidth="1"/>
     <col min="2" max="2" width="61.125" customWidth="1"/>
@@ -1450,6 +1457,11 @@
         <v>50</v>
       </c>
     </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
